--- a/OutputFiles/TC25_Canine_Filter_Breed-Greyhnd_WebData.xlsx
+++ b/OutputFiles/TC25_Canine_Filter_Breed-Greyhnd_WebData.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebData" r:id="rId3" sheetId="1"/>
+    <sheet name="CaseDetails" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
